--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>名称</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>修改人</t>
+  </si>
+  <si>
+    <t>一号仓库</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>一仓一区</t>
@@ -383,11 +389,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <dimension ref="A1:J7"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
@@ -473,7 +476,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>名称</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>修改人</t>
-  </si>
-  <si>
-    <t>一号仓库</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>一仓一区</t>
-  </si>
-  <si>
-    <t>0101</t>
   </si>
   <si>
     <t>一仓二区</t>
@@ -389,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
@@ -468,22 +456,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>名称</t>
   </si>
@@ -46,28 +46,124 @@
     <t>修改人</t>
   </si>
   <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>abc001</t>
+  </si>
+  <si>
+    <t>10086</t>
+  </si>
+  <si>
+    <t>-184572000</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2023-02-27 20:22:42</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>abc002</t>
+  </si>
+  <si>
+    <t>100861</t>
+  </si>
+  <si>
+    <t>845130080</t>
+  </si>
+  <si>
+    <t>2023-02-27 20:25:01</t>
+  </si>
+  <si>
+    <t>一号仓库</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01 一号仓库</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2022-10-25 23:54:15</t>
+  </si>
+  <si>
+    <t>2022-10-25 23:55:11</t>
+  </si>
+  <si>
+    <t>一仓一区</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0101 一仓一区</t>
+  </si>
+  <si>
+    <t>2022-10-25 23:58:38</t>
+  </si>
+  <si>
     <t>一仓二区</t>
   </si>
   <si>
     <t>0102</t>
   </si>
   <si>
+    <t>0102 一仓二区</t>
+  </si>
+  <si>
+    <t>2022-10-25 23:55:42</t>
+  </si>
+  <si>
     <t>一仓一区01位</t>
   </si>
   <si>
     <t>010101</t>
   </si>
   <si>
+    <t>010101 一仓一区01位</t>
+  </si>
+  <si>
     <t>一仓一区02位</t>
   </si>
   <si>
     <t>010102</t>
   </si>
   <si>
+    <t>010102 一仓一区02位</t>
+  </si>
+  <si>
+    <t>2022-10-25 23:59:25</t>
+  </si>
+  <si>
     <t>二号仓库</t>
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>02 二号仓库</t>
+  </si>
+  <si>
+    <t>2022-10-26 00:26:50</t>
   </si>
 </sst>
 </file>
@@ -377,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
@@ -431,28 +527,252 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
         <v>17</v>
       </c>
     </row>
